--- a/Data Demografi Responden.xlsx
+++ b/Data Demografi Responden.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="5250" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="5250" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluasi Sistem Manajemen Penge" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <sheet name="Agama" sheetId="5" r:id="rId6"/>
     <sheet name="Wilayah" sheetId="6" r:id="rId7"/>
     <sheet name="Wilayah (2)" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Evaluasi Sistem Manajemen Penge'!$A$1:$AH$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Penyesuaian Nama'!$A$1:$A$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="240">
   <si>
     <t>Cap waktu</t>
   </si>
@@ -1022,6 +1022,18 @@
   </si>
   <si>
     <t>Persentase Keanggotaan Komunitas Lokal Responden</t>
+  </si>
+  <si>
+    <t>Karakteristik</t>
+  </si>
+  <si>
+    <t>Jumlah (orang)</t>
+  </si>
+  <si>
+    <t>Persentase</t>
+  </si>
+  <si>
+    <t>Keanggotaan Komunitas Lokal</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1488,8 +1500,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1532,8 +1643,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1543,8 +1655,65 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="14" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1584,6 +1753,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -8801,8 +8971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8955,7 +9125,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9115,7 +9285,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9277,7 +9447,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,7 +9609,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9598,4 +9768,304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="13">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="17">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13">
+        <v>16</v>
+      </c>
+      <c r="D7" s="14">
+        <f>C7/19</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="18">
+        <f>C8/19</f>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14">
+        <f>C10/19</f>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11:D13" si="0">C11/19</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13">
+        <v>10</v>
+      </c>
+      <c r="D15" s="14">
+        <f>C15/19</f>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="17">
+        <v>9</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" ref="D16:D21" si="1">C16/19</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="13">
+        <v>6</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="13">
+        <v>7</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="1"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="1"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>